--- a/TP_Plasma/Datas/P.xlsx
+++ b/TP_Plasma/Datas/P.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="60">
   <si>
     <t>Air01</t>
   </si>
@@ -167,6 +167,33 @@
   </si>
   <si>
     <t>7.3e-2</t>
+  </si>
+  <si>
+    <t>Air27</t>
+  </si>
+  <si>
+    <t>7.7e-2</t>
+  </si>
+  <si>
+    <t>Air28</t>
+  </si>
+  <si>
+    <t>8e-2</t>
+  </si>
+  <si>
+    <t>Air29</t>
+  </si>
+  <si>
+    <t>8.5e-2</t>
+  </si>
+  <si>
+    <t>Air30</t>
+  </si>
+  <si>
+    <t>9e-2</t>
+  </si>
+  <si>
+    <t>Air31</t>
   </si>
 </sst>
 </file>
@@ -802,27 +829,45 @@
       <c r="C26" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
-      <c r="A27" s="1"/>
-      <c r="B27" s="2"/>
+      <c r="A27" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>52</v>
+      </c>
       <c r="C27" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
-      <c r="A28" s="1"/>
-      <c r="B28" s="2"/>
+      <c r="A28" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>54</v>
+      </c>
       <c r="C28" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
-      <c r="A29" s="1"/>
-      <c r="B29" s="2"/>
+      <c r="A29" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>56</v>
+      </c>
       <c r="C29" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
-      <c r="A30" s="1"/>
-      <c r="B30" s="2"/>
+      <c r="A30" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>58</v>
+      </c>
       <c r="C30" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
-      <c r="A31" s="1"/>
+      <c r="A31" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="B31" s="2"/>
       <c r="C31" s="1"/>
     </row>

--- a/TP_Plasma/Datas/P.xlsx
+++ b/TP_Plasma/Datas/P.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="69">
   <si>
     <t>Air01</t>
   </si>
@@ -194,6 +194,33 @@
   </si>
   <si>
     <t>Air31</t>
+  </si>
+  <si>
+    <t>9.5e-2</t>
+  </si>
+  <si>
+    <t>Air32</t>
+  </si>
+  <si>
+    <t>1e-1</t>
+  </si>
+  <si>
+    <t>Air33</t>
+  </si>
+  <si>
+    <t>1.5e-1</t>
+  </si>
+  <si>
+    <t>Air34</t>
+  </si>
+  <si>
+    <t>2e-1</t>
+  </si>
+  <si>
+    <t>Air35</t>
+  </si>
+  <si>
+    <t>2.5e-1</t>
   </si>
 </sst>
 </file>
@@ -245,7 +272,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
@@ -258,6 +285,9 @@
     </xf>
     <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
@@ -567,15 +597,15 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:C33"/>
+  <dimension ref="A1:C46"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
@@ -868,20 +898,107 @@
       <c r="A31" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B31" s="2"/>
+      <c r="B31" s="2" t="s">
+        <v>60</v>
+      </c>
       <c r="C31" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
-      <c r="A32" s="1"/>
-      <c r="B32" s="2"/>
+      <c r="A32" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>62</v>
+      </c>
       <c r="C32" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
-      <c r="A33" s="3" t="s">
+      <c r="A33" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C33" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
+      <c r="A34" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C34" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
+      <c r="A35" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C35" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75">
+      <c r="A36" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B33" s="2"/>
-      <c r="C33" s="1"/>
+      <c r="B36" s="2"/>
+      <c r="C36" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75">
+      <c r="A37" s="1"/>
+      <c r="B37" s="2"/>
+      <c r="C37" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75">
+      <c r="A38" s="1"/>
+      <c r="B38" s="2"/>
+      <c r="C38" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75">
+      <c r="A39" s="1"/>
+      <c r="B39" s="2"/>
+      <c r="C39" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75">
+      <c r="A40" s="1"/>
+      <c r="B40" s="2"/>
+      <c r="C40" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75">
+      <c r="A41" s="1"/>
+      <c r="B41" s="2"/>
+      <c r="C41" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75">
+      <c r="A42" s="1"/>
+      <c r="B42" s="2"/>
+      <c r="C42" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75">
+      <c r="A43" s="1"/>
+      <c r="B43" s="2"/>
+      <c r="C43" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75">
+      <c r="A44" s="1"/>
+      <c r="B44" s="2"/>
+      <c r="C44" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18.75">
+      <c r="A45" s="1"/>
+      <c r="B45" s="2"/>
+      <c r="C45" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18.75">
+      <c r="A46" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C46" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/TP_Plasma/Datas/P.xlsx
+++ b/TP_Plasma/Datas/P.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="82">
   <si>
     <t>Air01</t>
   </si>
@@ -221,6 +221,45 @@
   </si>
   <si>
     <t>2.5e-1</t>
+  </si>
+  <si>
+    <t>Air36</t>
+  </si>
+  <si>
+    <t>3e-1</t>
+  </si>
+  <si>
+    <t>Air37</t>
+  </si>
+  <si>
+    <t>3.5e-1</t>
+  </si>
+  <si>
+    <t>Air38</t>
+  </si>
+  <si>
+    <t>4e-1</t>
+  </si>
+  <si>
+    <t>Air39</t>
+  </si>
+  <si>
+    <t>4.5e-1</t>
+  </si>
+  <si>
+    <t>Air40</t>
+  </si>
+  <si>
+    <t>5e-1</t>
+  </si>
+  <si>
+    <t>Air41</t>
+  </si>
+  <si>
+    <t>5.5e-1</t>
+  </si>
+  <si>
+    <t>Air42</t>
   </si>
 </sst>
 </file>
@@ -940,39 +979,63 @@
       <c r="C35" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75">
-      <c r="A36" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B36" s="2"/>
+      <c r="A36" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>70</v>
+      </c>
       <c r="C36" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75">
-      <c r="A37" s="1"/>
-      <c r="B37" s="2"/>
+      <c r="A37" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>72</v>
+      </c>
       <c r="C37" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75">
-      <c r="A38" s="1"/>
-      <c r="B38" s="2"/>
+      <c r="A38" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>74</v>
+      </c>
       <c r="C38" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75">
-      <c r="A39" s="1"/>
-      <c r="B39" s="2"/>
+      <c r="A39" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>76</v>
+      </c>
       <c r="C39" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75">
-      <c r="A40" s="1"/>
-      <c r="B40" s="2"/>
+      <c r="A40" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>78</v>
+      </c>
       <c r="C40" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75">
-      <c r="A41" s="1"/>
-      <c r="B41" s="2"/>
+      <c r="A41" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>80</v>
+      </c>
       <c r="C41" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75">
-      <c r="A42" s="1"/>
+      <c r="A42" s="1" t="s">
+        <v>81</v>
+      </c>
       <c r="B42" s="2"/>
       <c r="C42" s="1"/>
     </row>

--- a/TP_Plasma/Datas/P.xlsx
+++ b/TP_Plasma/Datas/P.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="97">
   <si>
     <t>Air01</t>
   </si>
@@ -79,9 +79,6 @@
     <t>3.5e-2</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>Air12</t>
   </si>
   <si>
@@ -260,16 +257,65 @@
   </si>
   <si>
     <t>Air42</t>
+  </si>
+  <si>
+    <t>6e-1</t>
+  </si>
+  <si>
+    <t>Air43</t>
+  </si>
+  <si>
+    <t>6.6e-1</t>
+  </si>
+  <si>
+    <t>Air44</t>
+  </si>
+  <si>
+    <t>7e-1</t>
+  </si>
+  <si>
+    <t>Air45</t>
+  </si>
+  <si>
+    <t>7.5e-1</t>
+  </si>
+  <si>
+    <t>Air46</t>
+  </si>
+  <si>
+    <t>8e-1</t>
+  </si>
+  <si>
+    <t>Aire47</t>
+  </si>
+  <si>
+    <t>8.5e-1</t>
+  </si>
+  <si>
+    <t>Aire48</t>
+  </si>
+  <si>
+    <t>9e-1</t>
+  </si>
+  <si>
+    <t>Aire49</t>
+  </si>
+  <si>
+    <t>9.5e-1</t>
+  </si>
+  <si>
+    <t>Aire50</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.00e+00"/>
+    <numFmt numFmtId="165" formatCode="#,##0.000000"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -280,6 +326,12 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -316,16 +368,16 @@
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
     <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" quotePrefix="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="165" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -636,7 +688,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:C46"/>
+  <dimension ref="A1:C58"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
@@ -756,24 +808,20 @@
       <c r="B11" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>21</v>
-      </c>
+      <c r="C11" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
       <c r="A12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>21</v>
-      </c>
+      <c r="C12" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
       <c r="A13" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>2</v>
@@ -782,286 +830,374 @@
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
       <c r="A14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>26</v>
       </c>
       <c r="C14" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
       <c r="A15" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>28</v>
       </c>
       <c r="C15" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
       <c r="A16" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" s="3" t="s">
         <v>29</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>30</v>
       </c>
       <c r="C16" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
       <c r="A17" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>31</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>32</v>
       </c>
       <c r="C17" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
       <c r="A18" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>33</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>34</v>
       </c>
       <c r="C18" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
       <c r="A19" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>35</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>36</v>
       </c>
       <c r="C19" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
       <c r="A20" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>37</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>38</v>
       </c>
       <c r="C20" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
       <c r="A21" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>39</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>40</v>
       </c>
       <c r="C21" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
       <c r="A22" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B22" s="2" t="s">
         <v>41</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>42</v>
       </c>
       <c r="C22" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
       <c r="A23" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B23" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>44</v>
       </c>
       <c r="C23" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
       <c r="A24" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B24" s="2" t="s">
         <v>45</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>46</v>
       </c>
       <c r="C24" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
       <c r="A25" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B25" s="2" t="s">
         <v>47</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>48</v>
       </c>
       <c r="C25" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
       <c r="A26" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B26" s="2" t="s">
         <v>49</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>50</v>
       </c>
       <c r="C26" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
       <c r="A27" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B27" s="2" t="s">
         <v>51</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>52</v>
       </c>
       <c r="C27" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
       <c r="A28" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B28" s="2" t="s">
         <v>53</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>54</v>
       </c>
       <c r="C28" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
       <c r="A29" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B29" s="2" t="s">
         <v>55</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>56</v>
       </c>
       <c r="C29" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
       <c r="A30" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B30" s="2" t="s">
         <v>57</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>58</v>
       </c>
       <c r="C30" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
       <c r="A31" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B31" s="2" t="s">
         <v>59</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>60</v>
       </c>
       <c r="C31" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
       <c r="A32" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B32" s="2" t="s">
         <v>61</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>62</v>
       </c>
       <c r="C32" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
       <c r="A33" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B33" s="2" t="s">
         <v>63</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>64</v>
       </c>
       <c r="C33" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
       <c r="A34" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B34" s="2" t="s">
         <v>65</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>66</v>
       </c>
       <c r="C34" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
       <c r="A35" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B35" s="2" t="s">
         <v>67</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>68</v>
       </c>
       <c r="C35" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75">
       <c r="A36" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B36" s="2" t="s">
         <v>69</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>70</v>
       </c>
       <c r="C36" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75">
       <c r="A37" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B37" s="2" t="s">
         <v>71</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>72</v>
       </c>
       <c r="C37" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75">
       <c r="A38" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B38" s="2" t="s">
         <v>73</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>74</v>
       </c>
       <c r="C38" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75">
       <c r="A39" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B39" s="2" t="s">
         <v>75</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>76</v>
       </c>
       <c r="C39" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75">
       <c r="A40" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B40" s="2" t="s">
         <v>77</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>78</v>
       </c>
       <c r="C40" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75">
       <c r="A41" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B41" s="2" t="s">
         <v>79</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>80</v>
       </c>
       <c r="C41" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75">
       <c r="A42" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B42" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="B42" s="2"/>
       <c r="C42" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75">
-      <c r="A43" s="1"/>
-      <c r="B43" s="2"/>
+      <c r="A43" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>83</v>
+      </c>
       <c r="C43" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75">
-      <c r="A44" s="1"/>
-      <c r="B44" s="2"/>
+      <c r="A44" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>85</v>
+      </c>
       <c r="C44" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18.75">
-      <c r="A45" s="1"/>
-      <c r="B45" s="2"/>
+      <c r="A45" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>87</v>
+      </c>
       <c r="C45" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18.75">
-      <c r="A46" s="3" t="s">
-        <v>21</v>
+      <c r="A46" s="1" t="s">
+        <v>88</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>21</v>
+        <v>89</v>
       </c>
       <c r="C46" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="18.75">
+      <c r="A47" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C47" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="18.75">
+      <c r="A48" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="C48" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="18.75">
+      <c r="A49" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="C49" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="18.75">
+      <c r="A50" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B50" s="5"/>
+      <c r="C50" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="18.75">
+      <c r="A51" s="1"/>
+      <c r="B51" s="5"/>
+      <c r="C51" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="18.75">
+      <c r="A52" s="1"/>
+      <c r="B52" s="5"/>
+      <c r="C52" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="18.75">
+      <c r="A53" s="1"/>
+      <c r="B53" s="5"/>
+      <c r="C53" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="18.75">
+      <c r="A54" s="1"/>
+      <c r="B54" s="5"/>
+      <c r="C54" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="18.75">
+      <c r="A55" s="1"/>
+      <c r="B55" s="5"/>
+      <c r="C55" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="18.75">
+      <c r="A56" s="1"/>
+      <c r="B56" s="5"/>
+      <c r="C56" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="18.75">
+      <c r="A57" s="1"/>
+      <c r="B57" s="5"/>
+      <c r="C57" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="18.75">
+      <c r="A58" s="1"/>
+      <c r="B58" s="2"/>
+      <c r="C58" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/TP_Plasma/Datas/P.xlsx
+++ b/TP_Plasma/Datas/P.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="104">
   <si>
     <t>Air01</t>
   </si>
@@ -298,13 +298,34 @@
     <t>9e-1</t>
   </si>
   <si>
-    <t>Aire49</t>
-  </si>
-  <si>
-    <t>9.5e-1</t>
-  </si>
-  <si>
-    <t>Aire50</t>
+    <t/>
+  </si>
+  <si>
+    <t>He1</t>
+  </si>
+  <si>
+    <t>2.8e-2</t>
+  </si>
+  <si>
+    <t>He2</t>
+  </si>
+  <si>
+    <t>He3</t>
+  </si>
+  <si>
+    <t>He4</t>
+  </si>
+  <si>
+    <t>2.9e-2</t>
+  </si>
+  <si>
+    <t>He5</t>
+  </si>
+  <si>
+    <t>He6</t>
+  </si>
+  <si>
+    <t>He7</t>
   </si>
 </sst>
 </file>
@@ -363,7 +384,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
@@ -378,6 +399,12 @@
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -688,15 +715,15 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:C58"/>
+  <dimension ref="A1:C64"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
@@ -1144,48 +1171,72 @@
       <c r="C48" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="18.75">
-      <c r="A49" s="1" t="s">
+      <c r="A49" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="B49" s="5" t="s">
-        <v>95</v>
+      <c r="B49" s="7" t="s">
+        <v>94</v>
       </c>
       <c r="C49" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="18.75">
       <c r="A50" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B50" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="B50" s="5"/>
       <c r="C50" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="18.75">
-      <c r="A51" s="1"/>
-      <c r="B51" s="5"/>
+      <c r="A51" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>96</v>
+      </c>
       <c r="C51" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="18.75">
-      <c r="A52" s="1"/>
-      <c r="B52" s="5"/>
+      <c r="A52" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>14</v>
+      </c>
       <c r="C52" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="18.75">
-      <c r="A53" s="1"/>
-      <c r="B53" s="5"/>
+      <c r="A53" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>100</v>
+      </c>
       <c r="C53" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="18.75">
-      <c r="A54" s="1"/>
-      <c r="B54" s="5"/>
+      <c r="A54" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>17</v>
+      </c>
       <c r="C54" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="18.75">
-      <c r="A55" s="1"/>
-      <c r="B55" s="5"/>
+      <c r="A55" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>20</v>
+      </c>
       <c r="C55" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="18.75">
-      <c r="A56" s="1"/>
+      <c r="A56" s="1" t="s">
+        <v>103</v>
+      </c>
       <c r="B56" s="5"/>
       <c r="C56" s="1"/>
     </row>
@@ -1196,8 +1247,38 @@
     </row>
     <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="18.75">
       <c r="A58" s="1"/>
-      <c r="B58" s="2"/>
+      <c r="B58" s="5"/>
       <c r="C58" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="18.75">
+      <c r="A59" s="1"/>
+      <c r="B59" s="5"/>
+      <c r="C59" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="18.75">
+      <c r="A60" s="1"/>
+      <c r="B60" s="5"/>
+      <c r="C60" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="18.75">
+      <c r="A61" s="1"/>
+      <c r="B61" s="5"/>
+      <c r="C61" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="18.75">
+      <c r="A62" s="1"/>
+      <c r="B62" s="5"/>
+      <c r="C62" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="18.75">
+      <c r="A63" s="1"/>
+      <c r="B63" s="5"/>
+      <c r="C63" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="18.75">
+      <c r="A64" s="1"/>
+      <c r="B64" s="2"/>
+      <c r="C64" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/TP_Plasma/Datas/P.xlsx
+++ b/TP_Plasma/Datas/P.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="94">
   <si>
     <t>Air01</t>
   </si>
@@ -296,36 +296,6 @@
   </si>
   <si>
     <t>9e-1</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>He1</t>
-  </si>
-  <si>
-    <t>2.8e-2</t>
-  </si>
-  <si>
-    <t>He2</t>
-  </si>
-  <si>
-    <t>He3</t>
-  </si>
-  <si>
-    <t>He4</t>
-  </si>
-  <si>
-    <t>2.9e-2</t>
-  </si>
-  <si>
-    <t>He5</t>
-  </si>
-  <si>
-    <t>He6</t>
-  </si>
-  <si>
-    <t>He7</t>
   </si>
 </sst>
 </file>
@@ -384,7 +354,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="8">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
@@ -399,12 +369,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -715,15 +679,15 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:C64"/>
+  <dimension ref="A1:C55"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
@@ -1171,114 +1135,39 @@
       <c r="C48" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="18.75">
-      <c r="A49" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="B49" s="7" t="s">
-        <v>94</v>
-      </c>
+      <c r="A49" s="1"/>
+      <c r="B49" s="5"/>
       <c r="C49" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="18.75">
-      <c r="A50" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="B50" s="5" t="s">
-        <v>96</v>
-      </c>
+      <c r="A50" s="1"/>
+      <c r="B50" s="5"/>
       <c r="C50" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="18.75">
-      <c r="A51" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="B51" s="5" t="s">
-        <v>96</v>
-      </c>
+      <c r="A51" s="1"/>
+      <c r="B51" s="5"/>
       <c r="C51" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="18.75">
-      <c r="A52" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="B52" s="5" t="s">
-        <v>14</v>
-      </c>
+      <c r="A52" s="1"/>
+      <c r="B52" s="5"/>
       <c r="C52" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="18.75">
-      <c r="A53" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="B53" s="5" t="s">
-        <v>100</v>
-      </c>
+      <c r="A53" s="1"/>
+      <c r="B53" s="5"/>
       <c r="C53" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="18.75">
-      <c r="A54" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="B54" s="5" t="s">
-        <v>17</v>
-      </c>
+      <c r="A54" s="1"/>
+      <c r="B54" s="5"/>
       <c r="C54" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="18.75">
-      <c r="A55" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="B55" s="5" t="s">
-        <v>20</v>
-      </c>
+      <c r="A55" s="1"/>
+      <c r="B55" s="2"/>
       <c r="C55" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="18.75">
-      <c r="A56" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="B56" s="5"/>
-      <c r="C56" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="18.75">
-      <c r="A57" s="1"/>
-      <c r="B57" s="5"/>
-      <c r="C57" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="18.75">
-      <c r="A58" s="1"/>
-      <c r="B58" s="5"/>
-      <c r="C58" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="18.75">
-      <c r="A59" s="1"/>
-      <c r="B59" s="5"/>
-      <c r="C59" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="18.75">
-      <c r="A60" s="1"/>
-      <c r="B60" s="5"/>
-      <c r="C60" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="18.75">
-      <c r="A61" s="1"/>
-      <c r="B61" s="5"/>
-      <c r="C61" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="18.75">
-      <c r="A62" s="1"/>
-      <c r="B62" s="5"/>
-      <c r="C62" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="18.75">
-      <c r="A63" s="1"/>
-      <c r="B63" s="5"/>
-      <c r="C63" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="18.75">
-      <c r="A64" s="1"/>
-      <c r="B64" s="2"/>
-      <c r="C64" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
